--- a/data/trans_orig/P29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F867525-BE01-4155-AB1E-AB229C055BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58CB4A75-C463-4B72-A18E-0025F640C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{735D7473-D1EE-4268-ACEB-BB5121FDCA47}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68FCC8E1-46B5-433E-B5F7-31ED0EA1AFEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="919">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -836,7 +836,82 @@
     <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
   <si>
     <t>28,79%</t>
@@ -998,1771 +1073,1729 @@
     <t>53,05%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>25,32%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C04801A-0E4B-4CE5-8DC9-A7840B11EC3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF18DE1-3D47-4D5D-BC17-9F42198C1A5B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4994,7 +5027,7 @@
         <v>541</v>
       </c>
       <c r="D37" s="7">
-        <v>542088</v>
+        <v>542087</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>245</v>
@@ -5075,7 +5108,7 @@
         <v>2721</v>
       </c>
       <c r="N38" s="7">
-        <v>2776424</v>
+        <v>2776425</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>260</v>
@@ -5096,7 +5129,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -5111,7 +5144,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -5126,7 +5159,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -5164,7 +5197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6FD615-1472-4FC8-830C-D8390E1D5F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A6179-FDE5-4384-8B4B-02F5D66D9462}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5282,43 +5315,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="D4" s="7">
+        <v>80436</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="I4" s="7">
+        <v>146227</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="N4" s="7">
+        <v>226662</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,43 +5366,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D5" s="7">
+        <v>38978</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>31326</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N5" s="7">
+        <v>70304</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,43 +5417,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D6" s="7">
+        <v>175325</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I6" s="7">
+        <v>109692</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="N6" s="7">
+        <v>285017</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,43 +5468,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5527,13 @@
         <v>145550</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>268</v>
@@ -5485,13 +5542,13 @@
         <v>291859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>399</v>
@@ -5500,13 +5557,13 @@
         <v>437408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5578,13 @@
         <v>49858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -5536,10 +5593,10 @@
         <v>80545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>249</v>
@@ -5551,13 +5608,13 @@
         <v>130402</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5629,13 @@
         <v>310120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -5587,13 +5644,13 @@
         <v>151362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>431</v>
@@ -5602,13 +5659,13 @@
         <v>461482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5733,13 @@
         <v>84348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>155</v>
@@ -5691,13 +5748,13 @@
         <v>165822</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="M12" s="7">
         <v>233</v>
@@ -5706,13 +5763,13 @@
         <v>250169</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5784,13 @@
         <v>37225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5742,13 +5799,13 @@
         <v>50549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -5757,13 +5814,13 @@
         <v>87774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5835,13 @@
         <v>202473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -5793,13 +5850,13 @@
         <v>124649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -5808,13 +5865,13 @@
         <v>327122</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,49 +5933,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>179476</v>
+        <v>99041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
+        <v>215</v>
+      </c>
+      <c r="I16" s="7">
+        <v>224807</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="I16" s="7">
-        <v>371034</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
-        <v>515</v>
+        <v>306</v>
       </c>
       <c r="N16" s="7">
-        <v>550511</v>
+        <v>323848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,49 +5984,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>122890</v>
+        <v>83912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>108128</v>
+        <v>76801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="N17" s="7">
-        <v>231018</v>
+        <v>160714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,49 +6035,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="D18" s="7">
-        <v>366354</v>
+        <v>191029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="H18" s="7">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="I18" s="7">
-        <v>197034</v>
+        <v>87342</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="M18" s="7">
-        <v>519</v>
+        <v>256</v>
       </c>
       <c r="N18" s="7">
-        <v>563388</v>
+        <v>278371</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,10 +6086,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6044,10 +6101,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6059,10 +6116,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6088,13 +6145,13 @@
         <v>47226</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="H20" s="7">
         <v>122</v>
@@ -6103,13 +6160,13 @@
         <v>126438</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -6118,13 +6175,13 @@
         <v>173664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6196,13 @@
         <v>37184</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -6154,13 +6211,13 @@
         <v>39044</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="M21" s="7">
         <v>75</v>
@@ -6169,13 +6226,13 @@
         <v>76228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6247,13 @@
         <v>128208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6205,13 +6262,13 @@
         <v>54109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>169</v>
@@ -6220,13 +6277,13 @@
         <v>182317</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6351,13 @@
         <v>55298</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="H24" s="7">
         <v>135</v>
@@ -6309,13 +6366,13 @@
         <v>141484</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="M24" s="7">
         <v>188</v>
@@ -6324,13 +6381,13 @@
         <v>196783</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,10 +6402,10 @@
         <v>33477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>86</v>
@@ -6360,13 +6417,13 @@
         <v>43313</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -6375,13 +6432,13 @@
         <v>76791</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6453,13 @@
         <v>185206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -6411,13 +6468,13 @@
         <v>95233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>269</v>
@@ -6426,13 +6483,13 @@
         <v>280439</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6557,13 @@
         <v>156079</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="H28" s="7">
         <v>336</v>
@@ -6515,13 +6572,13 @@
         <v>369232</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="M28" s="7">
         <v>480</v>
@@ -6530,13 +6587,13 @@
         <v>525311</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6608,13 @@
         <v>109239</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7">
         <v>105</v>
@@ -6566,13 +6623,13 @@
         <v>110096</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>204</v>
@@ -6581,13 +6638,13 @@
         <v>219335</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6659,13 @@
         <v>397469</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="H30" s="7">
         <v>195</v>
@@ -6617,13 +6674,13 @@
         <v>214525</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="M30" s="7">
         <v>570</v>
@@ -6632,13 +6689,13 @@
         <v>611995</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6763,13 @@
         <v>275745</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>425</v>
+        <v>346</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="H32" s="7">
         <v>514</v>
@@ -6721,13 +6778,13 @@
         <v>559751</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="M32" s="7">
         <v>771</v>
@@ -6736,13 +6793,13 @@
         <v>835496</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6814,13 @@
         <v>48616</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H33" s="7">
         <v>42</v>
@@ -6772,13 +6829,13 @@
         <v>45109</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>438</v>
+        <v>278</v>
       </c>
       <c r="M33" s="7">
         <v>86</v>
@@ -6787,13 +6844,13 @@
         <v>93724</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6865,13 @@
         <v>454737</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="H34" s="7">
         <v>199</v>
@@ -6823,13 +6880,13 @@
         <v>217026</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="M34" s="7">
         <v>615</v>
@@ -6841,10 +6898,10 @@
         <v>61</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6969,13 @@
         <v>943722</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="H36" s="7">
         <v>1878</v>
@@ -6927,13 +6984,13 @@
         <v>2025620</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="M36" s="7">
         <v>2750</v>
@@ -6942,13 +6999,13 @@
         <v>2969342</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +7020,13 @@
         <v>438489</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="H37" s="7">
         <v>450</v>
@@ -6978,13 +7035,13 @@
         <v>476784</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="M37" s="7">
         <v>864</v>
@@ -6993,13 +7050,13 @@
         <v>915273</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7071,13 @@
         <v>2044567</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="H38" s="7">
         <v>968</v>
@@ -7029,13 +7086,13 @@
         <v>1053937</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="M38" s="7">
         <v>2891</v>
@@ -7044,10 +7101,10 @@
         <v>3098505</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>472</v>
+        <v>287</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>39</v>
@@ -7130,7 +7187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DE1CCE-F2C5-4E59-9E5E-F516B6C3C325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590FFA16-3361-4667-A6FF-80890E916F7A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7147,7 +7204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7254,10 +7311,10 @@
         <v>53972</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -7269,13 +7326,13 @@
         <v>107598</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -7284,13 +7341,13 @@
         <v>161570</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7362,13 @@
         <v>61116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -7320,13 +7377,13 @@
         <v>73061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="M5" s="7">
         <v>124</v>
@@ -7335,13 +7392,13 @@
         <v>134177</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7413,13 @@
         <v>178672</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
@@ -7371,13 +7428,13 @@
         <v>107046</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="M6" s="7">
         <v>270</v>
@@ -7386,13 +7443,13 @@
         <v>285719</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7517,13 @@
         <v>102489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="H8" s="7">
         <v>245</v>
@@ -7475,13 +7532,13 @@
         <v>270903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="M8" s="7">
         <v>339</v>
@@ -7490,13 +7547,13 @@
         <v>373391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7568,13 @@
         <v>132348</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="H9" s="7">
         <v>141</v>
@@ -7526,13 +7583,13 @@
         <v>148834</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -7541,13 +7598,13 @@
         <v>281182</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7619,13 @@
         <v>267738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -7577,13 +7634,13 @@
         <v>102259</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -7592,13 +7649,13 @@
         <v>369997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7723,13 @@
         <v>14668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -7681,13 +7738,13 @@
         <v>89206</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="M12" s="7">
         <v>99</v>
@@ -7696,13 +7753,13 @@
         <v>103874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7774,13 @@
         <v>96849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -7732,13 +7789,13 @@
         <v>124626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -7747,13 +7804,13 @@
         <v>221475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7825,13 @@
         <v>206084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -7783,13 +7840,13 @@
         <v>122478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
@@ -7798,13 +7855,13 @@
         <v>328562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,13 +7929,13 @@
         <v>50971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -7887,13 +7944,13 @@
         <v>118734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -7902,13 +7959,13 @@
         <v>169706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +7980,13 @@
         <v>85584</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -7938,13 +7995,13 @@
         <v>115752</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -7956,10 +8013,10 @@
         <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,13 +8031,13 @@
         <v>233409</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="H18" s="7">
         <v>141</v>
@@ -7989,13 +8046,13 @@
         <v>152797</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="M18" s="7">
         <v>362</v>
@@ -8004,13 +8061,13 @@
         <v>386206</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8135,13 @@
         <v>19223</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -8093,13 +8150,13 @@
         <v>31038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -8108,13 +8165,13 @@
         <v>50261</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8186,13 @@
         <v>100821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="H21" s="7">
         <v>154</v>
@@ -8144,13 +8201,13 @@
         <v>150074</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="M21" s="7">
         <v>256</v>
@@ -8159,13 +8216,13 @@
         <v>250895</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8237,13 @@
         <v>91177</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -8195,13 +8252,13 @@
         <v>37474</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -8210,10 +8267,10 @@
         <v>128651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>217</v>
@@ -8284,13 +8341,13 @@
         <v>19272</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -8299,10 +8356,10 @@
         <v>51928</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>237</v>
@@ -8314,13 +8371,13 @@
         <v>71200</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,13 +8392,13 @@
         <v>54799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>110</v>
@@ -8350,13 +8407,13 @@
         <v>115585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="M25" s="7">
         <v>165</v>
@@ -8365,13 +8422,13 @@
         <v>170384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8443,13 @@
         <v>189053</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -8401,13 +8458,13 @@
         <v>105601</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="M26" s="7">
         <v>291</v>
@@ -8416,13 +8473,13 @@
         <v>294654</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8547,13 @@
         <v>84039</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="H28" s="7">
         <v>193</v>
@@ -8505,13 +8562,13 @@
         <v>213073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="M28" s="7">
         <v>267</v>
@@ -8520,13 +8577,13 @@
         <v>297112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,13 +8598,13 @@
         <v>186714</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="H29" s="7">
         <v>207</v>
@@ -8556,13 +8613,13 @@
         <v>215895</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="M29" s="7">
         <v>378</v>
@@ -8571,13 +8628,13 @@
         <v>402609</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8592,13 +8649,13 @@
         <v>384710</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="H30" s="7">
         <v>244</v>
@@ -8607,28 +8664,28 @@
         <v>260208</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="M30" s="7">
         <v>578</v>
       </c>
       <c r="N30" s="7">
-        <v>644919</v>
+        <v>644918</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,7 +8727,7 @@
         <v>1223</v>
       </c>
       <c r="N31" s="7">
-        <v>1344640</v>
+        <v>1344639</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -8696,13 +8753,13 @@
         <v>86874</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="H32" s="7">
         <v>217</v>
@@ -8711,13 +8768,13 @@
         <v>239450</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="M32" s="7">
         <v>301</v>
@@ -8726,13 +8783,13 @@
         <v>326324</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>328</v>
+        <v>678</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8747,13 +8804,13 @@
         <v>235283</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="H33" s="7">
         <v>292</v>
@@ -8762,13 +8819,13 @@
         <v>319126</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="M33" s="7">
         <v>525</v>
@@ -8777,13 +8834,13 @@
         <v>554410</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +8855,13 @@
         <v>456426</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="H34" s="7">
         <v>244</v>
@@ -8813,10 +8870,10 @@
         <v>265268</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>13</v>
@@ -8828,13 +8885,13 @@
         <v>721694</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,13 +8959,13 @@
         <v>431508</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="H36" s="7">
         <v>1023</v>
@@ -8917,13 +8974,13 @@
         <v>1121931</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="M36" s="7">
         <v>1422</v>
@@ -8932,13 +8989,13 @@
         <v>1553439</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8953,13 +9010,13 @@
         <v>953515</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="H37" s="7">
         <v>1207</v>
@@ -8968,13 +9025,13 @@
         <v>1262953</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>2138</v>
@@ -8983,13 +9040,13 @@
         <v>2216468</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,13 +9061,13 @@
         <v>2007270</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="H38" s="7">
         <v>1102</v>
@@ -9019,13 +9076,13 @@
         <v>1153130</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="M38" s="7">
         <v>3001</v>
@@ -9037,10 +9094,10 @@
         <v>39</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,7 +9177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A4BEE8-F443-498A-A686-28E67C695664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BBE53B-3DE6-490C-8F42-A86B310EFE35}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9137,7 +9194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9241,46 +9298,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>13385</v>
+        <v>14819</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
       </c>
       <c r="I4" s="7">
-        <v>36860</v>
+        <v>38351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>697</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>698</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
       </c>
       <c r="N4" s="7">
-        <v>50245</v>
+        <v>53170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9292,46 +9349,46 @@
         <v>71</v>
       </c>
       <c r="D5" s="7">
-        <v>63800</v>
+        <v>82320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>102255</v>
+        <v>106886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="M5" s="7">
         <v>275</v>
       </c>
       <c r="N5" s="7">
-        <v>166054</v>
+        <v>189205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9343,46 +9400,46 @@
         <v>216</v>
       </c>
       <c r="D6" s="7">
-        <v>183113</v>
+        <v>214304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="H6" s="7">
         <v>241</v>
       </c>
       <c r="I6" s="7">
-        <v>132288</v>
+        <v>144399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>472</v>
+        <v>738</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="M6" s="7">
         <v>457</v>
       </c>
       <c r="N6" s="7">
-        <v>315401</v>
+        <v>358702</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9394,7 +9451,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9409,7 +9466,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9424,7 +9481,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9447,46 +9504,46 @@
         <v>68</v>
       </c>
       <c r="D8" s="7">
-        <v>81977</v>
+        <v>80421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>461</v>
+        <v>744</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="H8" s="7">
         <v>298</v>
       </c>
       <c r="I8" s="7">
-        <v>211968</v>
+        <v>195598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>722</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="M8" s="7">
         <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>293945</v>
+        <v>276019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9498,46 +9555,46 @@
         <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>127978</v>
+        <v>125558</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>727</v>
+        <v>237</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="H9" s="7">
         <v>216</v>
       </c>
       <c r="I9" s="7">
-        <v>167244</v>
+        <v>155829</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>257</v>
+        <v>753</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>731</v>
+        <v>560</v>
       </c>
       <c r="M9" s="7">
         <v>314</v>
       </c>
       <c r="N9" s="7">
-        <v>295223</v>
+        <v>281386</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>732</v>
+        <v>367</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>703</v>
+        <v>754</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9549,46 +9606,46 @@
         <v>214</v>
       </c>
       <c r="D10" s="7">
-        <v>307011</v>
+        <v>310215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>174698</v>
+        <v>162958</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>737</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>559</v>
+        <v>759</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
       </c>
       <c r="N10" s="7">
-        <v>481709</v>
+        <v>473173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>74</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,7 +9657,7 @@
         <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>516966</v>
+        <v>516193</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9615,7 +9672,7 @@
         <v>716</v>
       </c>
       <c r="I11" s="7">
-        <v>553911</v>
+        <v>514385</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9630,7 +9687,7 @@
         <v>1096</v>
       </c>
       <c r="N11" s="7">
-        <v>1070877</v>
+        <v>1030578</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9653,46 +9710,46 @@
         <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>32265</v>
+        <v>31822</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>743</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>181</v>
       </c>
       <c r="I12" s="7">
-        <v>119269</v>
+        <v>110660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>745</v>
+        <v>137</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="M12" s="7">
         <v>218</v>
       </c>
       <c r="N12" s="7">
-        <v>151533</v>
+        <v>142482</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>92</v>
+        <v>768</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9704,46 +9761,46 @@
         <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>93457</v>
+        <v>91672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>748</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="H13" s="7">
         <v>200</v>
       </c>
       <c r="I13" s="7">
-        <v>137724</v>
+        <v>128892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>751</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c r="M13" s="7">
         <v>302</v>
       </c>
       <c r="N13" s="7">
-        <v>231181</v>
+        <v>220565</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>707</v>
+        <v>774</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9755,46 +9812,46 @@
         <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>196518</v>
+        <v>192555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>756</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>757</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
       </c>
       <c r="I14" s="7">
-        <v>116291</v>
+        <v>109576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="M14" s="7">
         <v>376</v>
       </c>
       <c r="N14" s="7">
-        <v>312809</v>
+        <v>302131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>763</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9806,7 +9863,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9821,7 +9878,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9836,7 +9893,7 @@
         <v>896</v>
       </c>
       <c r="N15" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9859,46 +9916,46 @@
         <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>53967</v>
+        <v>51587</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
       </c>
       <c r="I16" s="7">
-        <v>161351</v>
+        <v>173232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
       </c>
       <c r="N16" s="7">
-        <v>215318</v>
+        <v>224819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>675</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9910,46 +9967,46 @@
         <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>66674</v>
+        <v>63678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
       </c>
       <c r="I17" s="7">
-        <v>99978</v>
+        <v>92193</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
       </c>
       <c r="N17" s="7">
-        <v>166653</v>
+        <v>155871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>557</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9961,46 +10018,46 @@
         <v>177</v>
       </c>
       <c r="D18" s="7">
-        <v>201599</v>
+        <v>197292</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>780</v>
+        <v>612</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="H18" s="7">
         <v>208</v>
       </c>
       <c r="I18" s="7">
-        <v>167227</v>
+        <v>210293</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="M18" s="7">
         <v>385</v>
       </c>
       <c r="N18" s="7">
-        <v>368825</v>
+        <v>407585</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10012,7 +10069,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -10027,7 +10084,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -10042,7 +10099,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -10065,46 +10122,46 @@
         <v>168</v>
       </c>
       <c r="D20" s="7">
-        <v>116052</v>
+        <v>105611</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
       </c>
       <c r="I20" s="7">
-        <v>175865</v>
+        <v>158050</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="M20" s="7">
         <v>543</v>
       </c>
       <c r="N20" s="7">
-        <v>291917</v>
+        <v>263661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10116,46 +10173,46 @@
         <v>59</v>
       </c>
       <c r="D21" s="7">
-        <v>41813</v>
+        <v>38031</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>798</v>
+        <v>818</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>799</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
       </c>
       <c r="I21" s="7">
-        <v>40093</v>
+        <v>36425</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
       </c>
       <c r="N21" s="7">
-        <v>81905</v>
+        <v>74456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>804</v>
+        <v>506</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10167,46 +10224,46 @@
         <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>38883</v>
+        <v>35100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>806</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>625</v>
+        <v>824</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>15945</v>
+        <v>14181</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
       </c>
       <c r="N22" s="7">
-        <v>54829</v>
+        <v>49281</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>810</v>
+        <v>696</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,7 +10275,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -10233,7 +10290,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -10248,7 +10305,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10271,46 +10328,46 @@
         <v>50</v>
       </c>
       <c r="D24" s="7">
-        <v>30211</v>
+        <v>29500</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>388</v>
+        <v>830</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>814</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>156</v>
       </c>
       <c r="I24" s="7">
-        <v>79731</v>
+        <v>74463</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="M24" s="7">
         <v>206</v>
       </c>
       <c r="N24" s="7">
-        <v>109942</v>
+        <v>103963</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>820</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10322,46 +10379,46 @@
         <v>99</v>
       </c>
       <c r="D25" s="7">
-        <v>66643</v>
+        <v>64594</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>821</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>26</v>
       </c>
       <c r="H25" s="7">
         <v>145</v>
       </c>
       <c r="I25" s="7">
-        <v>84085</v>
+        <v>78358</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>823</v>
+        <v>755</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
       </c>
       <c r="N25" s="7">
-        <v>150728</v>
+        <v>142952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10373,46 +10430,46 @@
         <v>221</v>
       </c>
       <c r="D26" s="7">
-        <v>179557</v>
+        <v>174775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="H26" s="7">
         <v>159</v>
       </c>
       <c r="I26" s="7">
-        <v>111807</v>
+        <v>104234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="M26" s="7">
         <v>380</v>
       </c>
       <c r="N26" s="7">
-        <v>291364</v>
+        <v>279008</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>835</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>786</v>
+        <v>848</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,7 +10481,7 @@
         <v>370</v>
       </c>
       <c r="D27" s="7">
-        <v>276412</v>
+        <v>268869</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10439,7 +10496,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10454,7 +10511,7 @@
         <v>830</v>
       </c>
       <c r="N27" s="7">
-        <v>552034</v>
+        <v>525924</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10477,46 +10534,46 @@
         <v>121</v>
       </c>
       <c r="D28" s="7">
-        <v>128902</v>
+        <v>128917</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="H28" s="7">
         <v>311</v>
       </c>
       <c r="I28" s="7">
-        <v>217748</v>
+        <v>201094</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>841</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="M28" s="7">
         <v>432</v>
       </c>
       <c r="N28" s="7">
-        <v>346650</v>
+        <v>330012</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>512</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10528,46 +10585,46 @@
         <v>126</v>
       </c>
       <c r="D29" s="7">
-        <v>132813</v>
+        <v>130816</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>845</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="H29" s="7">
         <v>254</v>
       </c>
       <c r="I29" s="7">
-        <v>180041</v>
+        <v>168286</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>59</v>
+        <v>862</v>
       </c>
       <c r="M29" s="7">
         <v>380</v>
       </c>
       <c r="N29" s="7">
-        <v>312854</v>
+        <v>299102</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10579,46 +10636,46 @@
         <v>348</v>
       </c>
       <c r="D30" s="7">
-        <v>362537</v>
+        <v>361152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="H30" s="7">
         <v>389</v>
       </c>
       <c r="I30" s="7">
-        <v>402076</v>
+        <v>475980</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>244</v>
+        <v>870</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="M30" s="7">
         <v>737</v>
       </c>
       <c r="N30" s="7">
-        <v>764614</v>
+        <v>837132</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>351</v>
+        <v>874</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10630,7 +10687,7 @@
         <v>595</v>
       </c>
       <c r="D31" s="7">
-        <v>624252</v>
+        <v>620885</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10645,7 +10702,7 @@
         <v>954</v>
       </c>
       <c r="I31" s="7">
-        <v>799866</v>
+        <v>845361</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10660,7 +10717,7 @@
         <v>1549</v>
       </c>
       <c r="N31" s="7">
-        <v>1424118</v>
+        <v>1466246</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10683,46 +10740,46 @@
         <v>67</v>
       </c>
       <c r="D32" s="7">
-        <v>70206</v>
+        <v>59229</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="H32" s="7">
         <v>180</v>
       </c>
       <c r="I32" s="7">
-        <v>143774</v>
+        <v>117978</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>86</v>
+        <v>818</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>362</v>
+        <v>878</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="M32" s="7">
         <v>247</v>
       </c>
       <c r="N32" s="7">
-        <v>213980</v>
+        <v>177207</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10734,46 +10791,46 @@
         <v>263</v>
       </c>
       <c r="D33" s="7">
-        <v>272915</v>
+        <v>231261</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="H33" s="7">
         <v>535</v>
       </c>
       <c r="I33" s="7">
-        <v>428632</v>
+        <v>355550</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>870</v>
+        <v>737</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>872</v>
+        <v>73</v>
       </c>
       <c r="M33" s="7">
         <v>798</v>
       </c>
       <c r="N33" s="7">
-        <v>701547</v>
+        <v>586811</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>874</v>
+        <v>109</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10785,46 +10842,46 @@
         <v>432</v>
       </c>
       <c r="D34" s="7">
-        <v>516308</v>
+        <v>638230</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="H34" s="7">
         <v>343</v>
       </c>
       <c r="I34" s="7">
-        <v>290431</v>
+        <v>239503</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="M34" s="7">
         <v>775</v>
       </c>
       <c r="N34" s="7">
-        <v>806739</v>
+        <v>877733</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10836,7 +10893,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10851,7 +10908,7 @@
         <v>1058</v>
       </c>
       <c r="I35" s="7">
-        <v>862838</v>
+        <v>713031</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10866,7 +10923,7 @@
         <v>1820</v>
       </c>
       <c r="N35" s="7">
-        <v>1722266</v>
+        <v>1641751</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10889,46 +10946,46 @@
         <v>605</v>
       </c>
       <c r="D36" s="7">
-        <v>526964</v>
+        <v>501907</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>885</v>
+        <v>625</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="H36" s="7">
         <v>1845</v>
       </c>
       <c r="I36" s="7">
-        <v>1146567</v>
+        <v>1069426</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>730</v>
+        <v>900</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="M36" s="7">
         <v>2450</v>
       </c>
       <c r="N36" s="7">
-        <v>1673530</v>
+        <v>1571333</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10940,46 +10997,46 @@
         <v>883</v>
       </c>
       <c r="D37" s="7">
-        <v>866093</v>
+        <v>827929</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="H37" s="7">
         <v>1783</v>
       </c>
       <c r="I37" s="7">
-        <v>1240052</v>
+        <v>1122419</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="M37" s="7">
         <v>2666</v>
       </c>
       <c r="N37" s="7">
-        <v>2106145</v>
+        <v>1950349</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>898</v>
+        <v>534</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>635</v>
+        <v>911</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10991,46 +11048,46 @@
         <v>1881</v>
       </c>
       <c r="D38" s="7">
-        <v>1985527</v>
+        <v>2123623</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>900</v>
+        <v>538</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>901</v>
+        <v>172</v>
       </c>
       <c r="H38" s="7">
         <v>1725</v>
       </c>
       <c r="I38" s="7">
-        <v>1410764</v>
+        <v>1461122</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>904</v>
+        <v>401</v>
       </c>
       <c r="M38" s="7">
         <v>3606</v>
       </c>
       <c r="N38" s="7">
-        <v>3396291</v>
+        <v>3584745</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11042,7 +11099,7 @@
         <v>3369</v>
       </c>
       <c r="D39" s="7">
-        <v>3378584</v>
+        <v>3453459</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -11057,7 +11114,7 @@
         <v>5353</v>
       </c>
       <c r="I39" s="7">
-        <v>3797383</v>
+        <v>3652968</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -11072,7 +11129,7 @@
         <v>8722</v>
       </c>
       <c r="N39" s="7">
-        <v>7175966</v>
+        <v>7106427</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
